--- a/tests/test_engines/engines.xlsx
+++ b/tests/test_engines/engines.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Dev/xlwings/tests/test_json/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Dev/xlwings/tests/test_engines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32902394-7514-6545-A425-3CBF8F9E41E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA6C9F2-D31E-DC46-A4F8-630EBD0B4223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3960" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{122BE06B-C62B-364D-8C27-94A5A3A52BCE}"/>
   </bookViews>
@@ -120,6 +120,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="mypic1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8C6308A-77C6-9700-C479-E17461BAD874}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5753100" y="1866900"/>
+          <a:ext cx="254000" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="mypic2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{016C4711-D9BC-0D58-C00A-8F6A2533F52A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4902200" y="4343400"/>
+          <a:ext cx="508000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,7 +515,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -472,6 +567,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/tests/test_engines/engines.xlsx
+++ b/tests/test_engines/engines.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Dev/xlwings/tests/test_engines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA6C9F2-D31E-DC46-A4F8-630EBD0B4223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC74675-FF71-AF47-B52C-C147F067F721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3960" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{122BE06B-C62B-364D-8C27-94A5A3A52BCE}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="two" localSheetId="0">Sheet1!$C$7:$D$8</definedName>
     <definedName name="two">Sheet2!$A$1:$A$2</definedName>
   </definedNames>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,6 +34,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,10 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>a</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>b</t>
   </si>
@@ -59,16 +58,34 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Bye xlwings!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,6 +230,28 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B18FAFA4-34CE-744C-B0D4-B1CC37ACA83E}" name="Table1" displayName="Table1" ref="A10:B11" totalsRowShown="0">
+  <autoFilter ref="A10:B11" xr:uid="{B18FAFA4-34CE-744C-B0D4-B1CC37ACA83E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{D3709D9F-F5D3-0440-A396-4B85543A7066}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{DB3B2626-EB57-CB4B-8EEB-52A879E1443F}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{873BDE79-EC61-594F-80F4-B77C8D8DB2C6}" name="Table2" displayName="Table2" ref="A15:C17" headerRowCount="0" totalsRowCount="1">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DD6B9710-F88E-7440-B524-68E37EA9B0BA}" name="Column1" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{A600C0A3-B20B-A54B-88EA-FE7EA3CA1DFC}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{E474186E-ABDF-B641-83F4-CE7C454956F5}" name="Column3" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,26 +549,52 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{C21804E5-3A43-8044-B02D-70E470E511D5}">
+  <we:reference id="9269fe91-d698-4781-a301-1c0f00660ec5" version="1.0.0.0" store="developer" storeType="Registry"/>
+  <we:alternateReferences/>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_XLWINGS_ADD</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_XLWINGS_ADD2</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AA9B18-AFFC-9544-8659-FB47B0FA3630}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1"/>
     </row>
@@ -565,9 +630,61 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <f>SUBTOTAL(109,Table2[Column3])</f>
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -584,10 +701,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -620,7 +737,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">

--- a/tests/test_engines/engines.xlsx
+++ b/tests/test_engines/engines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Dev/xlwings/tests/test_engines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC74675-FF71-AF47-B52C-C147F067F721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B50457-92A3-ED40-858B-F444C8588C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3960" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{122BE06B-C62B-364D-8C27-94A5A3A52BCE}"/>
   </bookViews>
@@ -69,7 +69,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Bye xlwings!</t>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -565,6 +565,9 @@
   <we:bindings/>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
+      <we:containsCustomFunctions/>
+    </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
         <we:customFunctionIds>_xldudf_XLWINGS_ADD</we:customFunctionIds>
@@ -581,7 +584,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tests/test_engines/engines.xlsx
+++ b/tests/test_engines/engines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Dev/xlwings/tests/test_engines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B50457-92A3-ED40-858B-F444C8588C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C315F80-1B9B-CC48-9E64-DBFD7E33BEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-3960" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{122BE06B-C62B-364D-8C27-94A5A3A52BCE}"/>
   </bookViews>
@@ -583,9 +583,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -603,13 +601,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D2" s="2">
         <v>44197</v>
@@ -617,13 +615,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -643,32 +641,32 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -677,7 +675,7 @@
       </c>
       <c r="C17">
         <f>SUBTOTAL(109,Table2[Column3])</f>
-        <v>9</v>
+        <v>9.8999999999999986</v>
       </c>
     </row>
   </sheetData>
